--- a/SchedulingData/static4/pso/scheduling1_8.xlsx
+++ b/SchedulingData/static4/pso/scheduling1_8.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>71.44</v>
+        <v>71.12</v>
       </c>
       <c r="E2" t="n">
-        <v>26.016</v>
+        <v>24.568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.12</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>24.568</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>71.44</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>127.34</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>22.536</v>
+        <v>26.348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>89.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>24.68</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>71.12</v>
       </c>
       <c r="D6" t="n">
-        <v>85.26000000000001</v>
+        <v>154.34</v>
       </c>
       <c r="E6" t="n">
-        <v>24.624</v>
+        <v>20.356</v>
       </c>
     </row>
     <row r="7">
@@ -561,55 +561,55 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>51.6</v>
+        <v>55.46</v>
       </c>
       <c r="E7" t="n">
-        <v>26.04</v>
+        <v>25.644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>89.7</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149.32</v>
+        <v>84.7</v>
       </c>
       <c r="E8" t="n">
-        <v>22.348</v>
+        <v>24.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>51.6</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>110.9</v>
+        <v>116.5</v>
       </c>
       <c r="E9" t="n">
-        <v>23.2</v>
+        <v>21.18</v>
       </c>
     </row>
     <row r="10">
@@ -618,41 +618,41 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>110.9</v>
+        <v>55.46</v>
       </c>
       <c r="D10" t="n">
-        <v>177.5</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>18.16</v>
+        <v>22.524</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>116.5</v>
       </c>
       <c r="D11" t="n">
-        <v>55.46</v>
+        <v>183.3</v>
       </c>
       <c r="E11" t="n">
-        <v>25.644</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -660,32 +660,32 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>127.34</v>
+        <v>77.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>173.94</v>
+        <v>129.42</v>
       </c>
       <c r="E12" t="n">
-        <v>19.016</v>
+        <v>22.828</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>71.12</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>137.26</v>
+        <v>207.62</v>
       </c>
       <c r="E13" t="n">
-        <v>20.564</v>
+        <v>17.148</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>85.26000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="D14" t="n">
-        <v>142.46</v>
+        <v>155.7</v>
       </c>
       <c r="E14" t="n">
-        <v>21.504</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>177.5</v>
+        <v>154.34</v>
       </c>
       <c r="D15" t="n">
-        <v>240.02</v>
+        <v>208.96</v>
       </c>
       <c r="E15" t="n">
-        <v>14.508</v>
+        <v>17.524</v>
       </c>
     </row>
     <row r="16">
@@ -732,340 +732,340 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>137.26</v>
+        <v>208.96</v>
       </c>
       <c r="D16" t="n">
-        <v>190.46</v>
+        <v>257.98</v>
       </c>
       <c r="E16" t="n">
-        <v>17.844</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>55.46</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>143.86</v>
+        <v>127.5</v>
       </c>
       <c r="E17" t="n">
-        <v>19.944</v>
+        <v>24.52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>143.86</v>
+        <v>183.3</v>
       </c>
       <c r="D18" t="n">
-        <v>214.7</v>
+        <v>253.8</v>
       </c>
       <c r="E18" t="n">
-        <v>16.44</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>173.94</v>
+        <v>129.42</v>
       </c>
       <c r="D19" t="n">
-        <v>241.24</v>
+        <v>187.48</v>
       </c>
       <c r="E19" t="n">
-        <v>15.376</v>
+        <v>19.132</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>214.7</v>
+        <v>257.98</v>
       </c>
       <c r="D20" t="n">
-        <v>271.9</v>
+        <v>294.98</v>
       </c>
       <c r="E20" t="n">
-        <v>13.32</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>241.24</v>
+        <v>253.8</v>
       </c>
       <c r="D21" t="n">
-        <v>284.68</v>
+        <v>309.64</v>
       </c>
       <c r="E21" t="n">
-        <v>12.672</v>
+        <v>10.176</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>142.46</v>
+        <v>207.62</v>
       </c>
       <c r="D22" t="n">
-        <v>209.66</v>
+        <v>253.68</v>
       </c>
       <c r="E22" t="n">
-        <v>18.864</v>
+        <v>14.652</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>149.32</v>
+        <v>294.98</v>
       </c>
       <c r="D23" t="n">
-        <v>213.84</v>
+        <v>361.58</v>
       </c>
       <c r="E23" t="n">
-        <v>19.516</v>
+        <v>7.632</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>284.68</v>
+        <v>155.7</v>
       </c>
       <c r="D24" t="n">
-        <v>316.78</v>
+        <v>212.14</v>
       </c>
       <c r="E24" t="n">
-        <v>10.592</v>
+        <v>17.696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>209.66</v>
+        <v>187.48</v>
       </c>
       <c r="D25" t="n">
-        <v>311.56</v>
+        <v>238.72</v>
       </c>
       <c r="E25" t="n">
-        <v>15.744</v>
+        <v>15.148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>311.56</v>
+        <v>127.5</v>
       </c>
       <c r="D26" t="n">
-        <v>377.72</v>
+        <v>188.74</v>
       </c>
       <c r="E26" t="n">
-        <v>13.248</v>
+        <v>20.516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>213.84</v>
+        <v>238.72</v>
       </c>
       <c r="D27" t="n">
-        <v>284.26</v>
+        <v>278.24</v>
       </c>
       <c r="E27" t="n">
-        <v>16.084</v>
+        <v>12.816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>316.78</v>
+        <v>253.68</v>
       </c>
       <c r="D28" t="n">
-        <v>360.7</v>
+        <v>297.18</v>
       </c>
       <c r="E28" t="n">
-        <v>7.82</v>
+        <v>11.932</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>271.9</v>
+        <v>212.14</v>
       </c>
       <c r="D29" t="n">
-        <v>338.9</v>
+        <v>269.34</v>
       </c>
       <c r="E29" t="n">
-        <v>9.24</v>
+        <v>14.576</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>190.46</v>
+        <v>269.34</v>
       </c>
       <c r="D30" t="n">
-        <v>263.58</v>
+        <v>342.04</v>
       </c>
       <c r="E30" t="n">
-        <v>13.632</v>
+        <v>10.936</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>240.02</v>
+        <v>188.74</v>
       </c>
       <c r="D31" t="n">
-        <v>310.56</v>
+        <v>235.84</v>
       </c>
       <c r="E31" t="n">
-        <v>11.544</v>
+        <v>17.436</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>310.56</v>
+        <v>278.24</v>
       </c>
       <c r="D32" t="n">
-        <v>397.36</v>
+        <v>341.28</v>
       </c>
       <c r="E32" t="n">
-        <v>8.464</v>
+        <v>10.112</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>263.58</v>
+        <v>297.18</v>
       </c>
       <c r="D33" t="n">
-        <v>316.84</v>
+        <v>342.9</v>
       </c>
       <c r="E33" t="n">
-        <v>9.936</v>
+        <v>8.5</v>
       </c>
     </row>
   </sheetData>
